--- a/ReadingListInformation/CBRO/DC/Events/XLSXandCSV/[DC Comics] Drowned Earth (WEB-CBRO)-USER.xlsx
+++ b/ReadingListInformation/CBRO/DC/Events/XLSXandCSV/[DC Comics] Drowned Earth (WEB-CBRO)-USER.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="40">
   <si>
     <t>SeriesName</t>
   </si>
@@ -49,6 +49,9 @@
     <t>CV Issue Number</t>
   </si>
   <si>
+    <t>CV Series Publisher</t>
+  </si>
+  <si>
     <t>CV Cover Image</t>
   </si>
   <si>
@@ -58,9 +61,6 @@
     <t>Days Between Issues</t>
   </si>
   <si>
-    <t>CV Series Publisher</t>
-  </si>
-  <si>
     <t>Justice League</t>
   </si>
   <si>
@@ -76,31 +76,37 @@
     <t>Aquaman/Justice League: Drowned Earth</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>Issue</t>
   </si>
   <si>
     <t>Comicvine</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>Aquaman/Justice League: Drowned Earth Special</t>
+  </si>
+  <si>
+    <t>DC Comics</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -127,7 +133,7 @@
     <t>https://comicvine.gamespot.com/justice-league-12-drowned-earth-part-three/4000-692528/</t>
   </si>
   <si>
-    <t>DC Comics</t>
+    <t>https://comicvine.gamespot.com/issue/4000-693424/</t>
   </si>
 </sst>
 </file>
@@ -560,17 +566,17 @@
       <c r="C2" s="2">
         <v>2018</v>
       </c>
-      <c r="D2" s="2">
-        <v>10</v>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3">
         <v>43435</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2">
         <v>111428</v>
@@ -585,19 +591,19 @@
         <v>2018</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="4">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="4">
         <v>0</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -610,17 +616,17 @@
       <c r="C3" s="2">
         <v>2016</v>
       </c>
-      <c r="D3" s="2">
-        <v>41</v>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3">
         <v>43435</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2">
         <v>91738</v>
@@ -635,19 +641,19 @@
         <v>2016</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="4">
         <v>0</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -660,17 +666,17 @@
       <c r="C4" s="2">
         <v>2016</v>
       </c>
-      <c r="D4" s="2">
-        <v>28</v>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F4" s="3">
         <v>43435</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H4" s="2">
         <v>92577</v>
@@ -685,19 +691,19 @@
         <v>2016</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="4">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="4">
         <v>0</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -710,17 +716,17 @@
       <c r="C5" s="2">
         <v>2018</v>
       </c>
-      <c r="D5" s="2">
-        <v>1</v>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F5" s="3">
         <v>43435</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H5" s="2">
         <v>114892</v>
@@ -735,19 +741,19 @@
         <v>2018</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="4">
         <v>31</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>37</v>
+      <c r="O5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="4">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -760,17 +766,17 @@
       <c r="C6" s="2">
         <v>2018</v>
       </c>
-      <c r="D6" s="2">
-        <v>11</v>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F6" s="3">
         <v>43466</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H6" s="2">
         <v>111428</v>
@@ -785,19 +791,19 @@
         <v>2018</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="4">
+        <v>31</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="4">
         <v>0</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -810,17 +816,17 @@
       <c r="C7" s="2">
         <v>2016</v>
       </c>
-      <c r="D7" s="2">
-        <v>42</v>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F7" s="3">
         <v>43466</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H7" s="2">
         <v>91738</v>
@@ -835,19 +841,19 @@
         <v>2016</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="4">
+        <v>31</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="4">
         <v>0</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -860,17 +866,17 @@
       <c r="C8" s="2">
         <v>2018</v>
       </c>
-      <c r="D8" s="2">
-        <v>12</v>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F8" s="3">
         <v>43466</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H8" s="2">
         <v>111428</v>
@@ -885,19 +891,19 @@
         <v>2018</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" s="4">
         <v>31</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>37</v>
+      <c r="O8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -910,56 +916,56 @@
       <c r="C9" s="2">
         <v>2018</v>
       </c>
-      <c r="D9" s="2">
-        <v>1</v>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F9" s="3">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H9" s="2">
-        <v>114892</v>
+        <v>115557</v>
       </c>
       <c r="I9" s="2">
-        <v>690796</v>
+        <v>693424</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="K9" s="2">
         <v>2018</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="4">
+        <v>31</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="4">
         <v>0</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1"/>
-    <hyperlink ref="N3" r:id="rId2"/>
-    <hyperlink ref="N4" r:id="rId3"/>
-    <hyperlink ref="N5" r:id="rId4"/>
-    <hyperlink ref="N6" r:id="rId5"/>
-    <hyperlink ref="N7" r:id="rId6"/>
-    <hyperlink ref="N8" r:id="rId7"/>
-    <hyperlink ref="N9" r:id="rId8"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId3"/>
+    <hyperlink ref="O5" r:id="rId4"/>
+    <hyperlink ref="O6" r:id="rId5"/>
+    <hyperlink ref="O7" r:id="rId6"/>
+    <hyperlink ref="O8" r:id="rId7"/>
+    <hyperlink ref="O9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
